--- a/Financials/Quarterly/PG_QTR_FIN.xlsx
+++ b/Financials/Quarterly/PG_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AF8B23-49BC-4D5E-888D-35322CCA8A8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PG" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>PG</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,148 +689,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17438000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16690000</v>
+      </c>
+      <c r="F8" s="3">
         <v>16503000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>16281000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>17395000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>16653000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>16079000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>15605000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>16856000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>16518000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8776000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8420000</v>
+      </c>
+      <c r="F9" s="3">
         <v>8564000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>8213000</v>
       </c>
-      <c r="F9" s="3">
-        <v>8561000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8111000</v>
-      </c>
       <c r="H9" s="3">
+        <v>17270000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>16380000</v>
+      </c>
+      <c r="J9" s="3">
         <v>8115000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7704000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>8150000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7973000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8662000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8270000</v>
+      </c>
+      <c r="F10" s="3">
         <v>7939000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8068000</v>
       </c>
-      <c r="F10" s="3">
-        <v>8834000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>8542000</v>
-      </c>
       <c r="H10" s="3">
+        <v>125000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>273000</v>
+      </c>
+      <c r="J10" s="3">
         <v>7964000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7901000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>8706000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>8545000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,8 +866,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +897,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,37 +932,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>137000</v>
+      </c>
+      <c r="F14" s="3">
         <v>554000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>205000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>154000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>157000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>249000</v>
       </c>
       <c r="I14" s="3">
         <v>157000</v>
       </c>
       <c r="J14" s="3">
+        <v>249000</v>
+      </c>
+      <c r="K14" s="3">
+        <v>157000</v>
+      </c>
+      <c r="L14" s="3">
         <v>175000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -923,8 +1002,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +1018,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13551000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13137000</v>
+      </c>
+      <c r="F17" s="3">
         <v>13826000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12985000</v>
       </c>
-      <c r="F17" s="3">
-        <v>13392000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>12918000</v>
-      </c>
       <c r="H17" s="3">
+        <v>13476000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13005000</v>
+      </c>
+      <c r="J17" s="3">
         <v>13130000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>12245000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>12981000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>12747000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3887000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3553000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2677000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3296000</v>
       </c>
-      <c r="F18" s="3">
-        <v>4003000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3735000</v>
-      </c>
       <c r="H18" s="3">
+        <v>3919000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3648000</v>
+      </c>
+      <c r="J18" s="3">
         <v>2949000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3360000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3875000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3771000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,153 +1103,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>516000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-252000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>90000</v>
       </c>
-      <c r="F20" s="3">
-        <v>152000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>131000</v>
-      </c>
       <c r="H20" s="3">
+        <v>358000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>218000</v>
+      </c>
+      <c r="J20" s="3">
         <v>94000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>72000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-497000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>98000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4704000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4712000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3175000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4102000</v>
       </c>
-      <c r="F21" s="3">
-        <v>4831000</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>4953000</v>
+      </c>
+      <c r="I21" s="3">
         <v>4558000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3763000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4097000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4085000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4597000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>129000</v>
+      </c>
+      <c r="F22" s="3">
         <v>136000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>133000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
+        <v>244000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>115000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>116000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>96000</v>
+      </c>
+      <c r="L22" s="3">
         <v>122000</v>
       </c>
-      <c r="G22" s="3">
-        <v>115000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>116000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>96000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>122000</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>131000</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3916000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3940000</v>
+      </c>
+      <c r="F23" s="3">
         <v>2289000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3253000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4033000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3751000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2927000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3336000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3256000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3738000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>729000</v>
+      </c>
+      <c r="F24" s="3">
         <v>499000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>613000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>872000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>881000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>725000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>780000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>695000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>863000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1309,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3216000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3211000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1790000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2640000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3161000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2870000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2202000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2556000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2561000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2875000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3129000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3133000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1724000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2537000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3033000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2791000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2152000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2462000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2479000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2769000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,37 +1414,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>100000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-100000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>-600000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>5335000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-118000</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1484,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1519,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-516000</v>
+      </c>
+      <c r="F32" s="3">
         <v>252000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-90000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-152000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-131000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-358000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-94000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-72000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>497000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-98000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3129000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3133000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1824000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2437000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2433000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2791000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2152000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2462000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>7814000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2651000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1624,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3129000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3133000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1824000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2437000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2433000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2791000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2152000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2462000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>7814000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2651000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1718,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,182 +1733,220 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3696000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2545000</v>
+      </c>
+      <c r="F41" s="3">
         <v>2569000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5326000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7432000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5024000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5569000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5817000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6051000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7456000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8421000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>8708000</v>
+      </c>
+      <c r="F42" s="3">
         <v>9281000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>10208000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>11326000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>10983000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>9568000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>8510000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>7403000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>6615000</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5055000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5035000</v>
+      </c>
+      <c r="F43" s="3">
         <v>4686000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5149000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>5182000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4942000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>4594000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>4358000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4729000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4713000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5281000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5182000</v>
+      </c>
+      <c r="F44" s="3">
         <v>4738000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>5207000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>5131000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>5023000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>4624000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>4754000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>4787000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4999000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1978000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1876000</v>
+      </c>
+      <c r="F45" s="3">
         <v>2046000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2070000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2143000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2124000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2139000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2446000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2602000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>11388000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24431000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>23346000</v>
+      </c>
+      <c r="F46" s="3">
         <v>23320000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>27960000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>31214000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>28096000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>26494000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>25885000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>25572000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>35171000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1731,66 +1974,84 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20822000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>20590000</v>
+      </c>
+      <c r="F48" s="3">
         <v>20600000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>20925000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>20420000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>20108000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>19893000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>19219000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>18778000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>19310000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>72879000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>69144000</v>
+      </c>
+      <c r="F49" s="3">
         <v>69077000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>70304000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>69848000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>69451000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>68886000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>67835000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>67643000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>68887000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +2079,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +2114,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5555000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5360000</v>
+      </c>
+      <c r="F52" s="3">
         <v>5313000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5180000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5162000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5196000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>5133000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5152000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5040000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5675000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2184,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>123687000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>118440000</v>
+      </c>
+      <c r="F54" s="3">
         <v>118310000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>124369000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>126644000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>122851000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>120406000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>118091000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>117033000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>129043000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2238,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,182 +2253,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10266000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10243000</v>
+      </c>
+      <c r="F57" s="3">
         <v>10344000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>9716000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>9740000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>9458000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>9632000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8076000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8300000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9024000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12113000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10508000</v>
+      </c>
+      <c r="F58" s="3">
         <v>10423000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>12862000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>15547000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>14026000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>13554000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>13781000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>13007000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>12215000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8868000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8469000</v>
+      </c>
+      <c r="F59" s="3">
         <v>7470000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8133000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7820000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7240000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7024000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7225000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7584000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11162000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31247000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>29220000</v>
+      </c>
+      <c r="F60" s="3">
         <v>28237000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>30711000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>33107000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>30724000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>30210000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>29082000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>28891000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>32401000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21514000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>20779000</v>
+      </c>
+      <c r="F61" s="3">
         <v>20863000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>22437000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>22186000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>20188000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>18038000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>16633000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>16460000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>18910000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16483000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15937000</v>
+      </c>
+      <c r="F62" s="3">
         <v>16327000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>16275000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>16630000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>16524000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>16380000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>17828000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>17938000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>18781000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2494,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2529,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2564,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69697000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>66204000</v>
+      </c>
+      <c r="F66" s="3">
         <v>66017000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>70054000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>72532000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>68033000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>65222000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>64251000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>63973000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>70781000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2618,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2649,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,37 +2684,49 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>946000</v>
+      </c>
+      <c r="E70" s="3">
+        <v>951000</v>
+      </c>
+      <c r="F70" s="3">
         <v>967000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>972000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>986000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>991000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>1006000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>1010000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>1024000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>1029000</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2754,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>101170000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>99831000</v>
+      </c>
+      <c r="F72" s="3">
         <v>98641000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>98623000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>97881000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>97197000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>96124000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>95736000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>94945000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>88855000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2824,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2859,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2894,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>53044000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>51285000</v>
+      </c>
+      <c r="F76" s="3">
         <v>51326000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>53343000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>53126000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>53827000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>54178000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>52830000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>52036000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>57233000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2964,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3129000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3133000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1824000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2437000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2433000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2791000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2152000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2462000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>7814000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2651000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +3058,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>650000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>643000</v>
+      </c>
+      <c r="F83" s="3">
         <v>750000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>716000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>676000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>692000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>720000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>665000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>707000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>728000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +3124,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +3159,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +3194,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3229,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3264,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4007000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3567000</v>
+      </c>
+      <c r="F89" s="3">
         <v>4199000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3353000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>3684000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3631000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>3688000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3040000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3000000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3025000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3318,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-701000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1080000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-907000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-910000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-768000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1132000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1154000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-801000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-745000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-684000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3384,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3419,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3845000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-865000</v>
+      </c>
+      <c r="F94" s="3">
         <v>97000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>97000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1171000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2534000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1866000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1802000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>100000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2121000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3473,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1850000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1853000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1861000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1813000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1813000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1823000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-1826000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-1773000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1786000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1851000</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3539,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3574,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3609,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2656000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6861000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-5638000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-152000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1724000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2229000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1600000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-4232000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-507000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-192000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>82000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>47000</v>
       </c>
       <c r="G101" s="3">
         <v>82000</v>
       </c>
       <c r="H101" s="3">
+        <v>47000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>82000</v>
+      </c>
+      <c r="J101" s="3">
         <v>159000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>128000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-273000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-43000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1151000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2757000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2106000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2408000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-545000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-248000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-234000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1405000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>354000</v>
       </c>
     </row>

--- a/Financials/Quarterly/PG_QTR_FIN.xlsx
+++ b/Financials/Quarterly/PG_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AF8B23-49BC-4D5E-888D-35322CCA8A8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="PG" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>PG</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,172 +654,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18240000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>17798000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>17094000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>16462000</v>
+      </c>
+      <c r="H8" s="3">
         <v>17438000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="I8" s="3">
         <v>16690000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="J8" s="3">
         <v>16503000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="K8" s="3">
         <v>16281000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>17395000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>16653000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>16079000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>15605000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>16856000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>16518000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8806000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8653000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8410000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8342000</v>
+      </c>
+      <c r="H9" s="3">
         <v>8776000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="I9" s="3">
         <v>8420000</v>
       </c>
-      <c r="F9" s="3">
-        <v>8564000</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
+        <v>17634000</v>
+      </c>
+      <c r="K9" s="3">
         <v>8213000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>17270000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>16380000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>8115000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>7704000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>8150000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="Q9" s="3">
         <v>7973000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9434000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9145000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8684000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8120000</v>
+      </c>
+      <c r="H10" s="3">
         <v>8662000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="I10" s="3">
         <v>8270000</v>
       </c>
-      <c r="F10" s="3">
-        <v>7939000</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
+        <v>-1131000</v>
+      </c>
+      <c r="K10" s="3">
         <v>8068000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>125000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>273000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>7964000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>7901000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>8706000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="Q10" s="3">
         <v>8545000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +881,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -903,8 +920,20 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -938,43 +967,67 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>93000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8985000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>116000</v>
+      </c>
+      <c r="H14" s="3">
         <v>177000</v>
       </c>
-      <c r="E14" s="3">
-        <v>137000</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="J14" s="3">
         <v>554000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="K14" s="3">
         <v>205000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="L14" s="3">
         <v>154000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="M14" s="3">
         <v>157000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
         <v>249000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="O14" s="3">
         <v>157000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="P14" s="3">
         <v>175000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="Q14" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1061,20 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,78 +1085,106 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13763000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13509000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>22287000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>13235000</v>
+      </c>
+      <c r="H17" s="3">
         <v>13551000</v>
       </c>
-      <c r="E17" s="3">
-        <v>13137000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>13826000</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
+        <v>12782000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13916000</v>
+      </c>
+      <c r="K17" s="3">
         <v>12985000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>13476000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>13005000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>13130000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>12245000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>12981000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>12747000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4477000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4289000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5193000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3227000</v>
+      </c>
+      <c r="H18" s="3">
         <v>3887000</v>
       </c>
-      <c r="E18" s="3">
-        <v>3553000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2677000</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
+        <v>3908000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2587000</v>
+      </c>
+      <c r="K18" s="3">
         <v>3296000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>3919000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>3648000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>2949000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>3360000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>3875000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>3771000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1105,183 +1198,247 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>162000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>239000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>182000</v>
+      </c>
+      <c r="H20" s="3">
         <v>167000</v>
       </c>
-      <c r="E20" s="3">
-        <v>516000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-252000</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
+        <v>161000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="K20" s="3">
         <v>90000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>358000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>218000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>94000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>72000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>-497000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="Q20" s="3">
         <v>98000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5309000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5174000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-4134000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4120000</v>
+      </c>
+      <c r="H21" s="3">
         <v>4704000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="I21" s="3">
         <v>4712000</v>
       </c>
-      <c r="F21" s="3">
-        <v>3175000</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
+        <v>3311000</v>
+      </c>
+      <c r="K21" s="3">
         <v>4102000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>4953000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>4558000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>3763000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>4097000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>4085000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>4597000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>108000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>111000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>131000</v>
+      </c>
+      <c r="H22" s="3">
         <v>138000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="I22" s="3">
         <v>129000</v>
       </c>
-      <c r="F22" s="3">
-        <v>136000</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
+        <v>272000</v>
+      </c>
+      <c r="K22" s="3">
         <v>133000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
         <v>244000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>115000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <v>116000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>96000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3">
         <v>122000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="Q22" s="3">
         <v>131000</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4532000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4343000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-5065000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3278000</v>
+      </c>
+      <c r="H23" s="3">
         <v>3916000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="I23" s="3">
         <v>3940000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
         <v>2289000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
         <v>3253000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>4033000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>3751000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>2927000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>3336000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>3256000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>3738000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>789000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>726000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>172000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>502000</v>
+      </c>
+      <c r="H24" s="3">
         <v>700000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="I24" s="3">
         <v>729000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="J24" s="3">
         <v>499000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="K24" s="3">
         <v>613000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>872000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>881000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>725000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>780000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>695000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="Q24" s="3">
         <v>863000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1315,78 +1472,114 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3743000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3617000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-5237000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2776000</v>
+      </c>
+      <c r="H26" s="3">
         <v>3216000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="I26" s="3">
         <v>3211000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="J26" s="3">
         <v>1790000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
         <v>2640000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>3161000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>2870000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>2202000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>2556000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>2561000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>2875000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3653000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3528000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-5309000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2681000</v>
+      </c>
+      <c r="H27" s="3">
         <v>3129000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="I27" s="3">
         <v>3133000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="J27" s="3">
         <v>1724000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
         <v>2537000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>3033000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>2791000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>2152000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>2462000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>2479000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>2769000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1420,8 +1613,20 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1432,31 +1637,43 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>100000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="K29" s="3">
         <v>-100000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="L29" s="3">
         <v>-600000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>5335000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="Q29" s="3">
         <v>-118000</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1490,8 +1707,20 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1525,78 +1754,114 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-239000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-167000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-516000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>252000</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-90000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>-358000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>-218000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>-94000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>-72000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>497000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="Q32" s="3">
         <v>-98000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3653000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3528000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-5309000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2681000</v>
+      </c>
+      <c r="H33" s="3">
         <v>3129000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="I33" s="3">
         <v>3133000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="J33" s="3">
         <v>1824000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
         <v>2437000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>2433000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>2791000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>2152000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>2462000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>7814000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>2651000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1630,83 +1895,119 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3653000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3528000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-5309000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2681000</v>
+      </c>
+      <c r="H35" s="3">
         <v>3129000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="I35" s="3">
         <v>3133000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="J35" s="3">
         <v>1824000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
         <v>2437000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>2433000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>2791000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>2152000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>2462000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>7814000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>2651000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +2021,12 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,218 +2040,294 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6279000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9304000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4239000</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2738000</v>
+      </c>
+      <c r="H41" s="3">
         <v>3696000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="I41" s="3">
         <v>2545000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="J41" s="3">
         <v>2569000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="K41" s="3">
         <v>5326000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>7432000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>5024000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>5569000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>5817000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>6051000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="Q41" s="3">
         <v>7456000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6048000</v>
+      </c>
+      <c r="G42" s="3">
+        <v>7085000</v>
+      </c>
+      <c r="H42" s="3">
         <v>8421000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="I42" s="3">
         <v>8708000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="J42" s="3">
         <v>9281000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="K42" s="3">
         <v>10208000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="L42" s="3">
         <v>11326000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="M42" s="3">
         <v>10983000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="N42" s="3">
         <v>9568000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>8510000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="P42" s="3">
         <v>7403000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="Q42" s="3">
         <v>6615000</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5196000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5143000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4951000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5198000</v>
+      </c>
+      <c r="H43" s="3">
         <v>5055000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="I43" s="3">
         <v>5035000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="J43" s="3">
         <v>4686000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="K43" s="3">
         <v>5149000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>5182000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>4942000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>4594000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>4358000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>4729000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="Q43" s="3">
         <v>4713000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5521000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5465000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>5017000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>5358000</v>
+      </c>
+      <c r="H44" s="3">
         <v>5281000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="I44" s="3">
         <v>5182000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="J44" s="3">
         <v>4738000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="K44" s="3">
         <v>5207000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>5131000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>5023000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>4624000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>4754000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>4787000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="Q44" s="3">
         <v>4999000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1921000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2013000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2218000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1933000</v>
+      </c>
+      <c r="H45" s="3">
         <v>1978000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="I45" s="3">
         <v>1876000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="J45" s="3">
         <v>2046000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="K45" s="3">
         <v>2070000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>2143000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>2124000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>2139000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>2446000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
         <v>2602000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="Q45" s="3">
         <v>11388000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18917000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>21925000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>22473000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>22312000</v>
+      </c>
+      <c r="H46" s="3">
         <v>24431000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="I46" s="3">
         <v>23346000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="J46" s="3">
         <v>23320000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="K46" s="3">
         <v>27960000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>31214000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>28096000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>26494000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>25885000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>25572000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="Q46" s="3">
         <v>35171000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1980,78 +2361,114 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22153000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>20901000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>21271000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>20993000</v>
+      </c>
+      <c r="H48" s="3">
         <v>20822000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="I48" s="3">
         <v>20590000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="J48" s="3">
         <v>20600000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="K48" s="3">
         <v>20925000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>20420000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>20108000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>19893000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>19219000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>18778000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>19310000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>63978000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>63607000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>64488000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>72589000</v>
+      </c>
+      <c r="H49" s="3">
         <v>72879000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="I49" s="3">
         <v>69144000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="J49" s="3">
         <v>69077000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="K49" s="3">
         <v>70304000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>69848000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>69451000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>68886000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>67835000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3">
         <v>67643000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="Q49" s="3">
         <v>68887000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2085,8 +2502,20 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2120,43 +2549,67 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6675000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7625000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>6863000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>5779000</v>
+      </c>
+      <c r="H52" s="3">
         <v>5555000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="I52" s="3">
         <v>5360000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="J52" s="3">
         <v>5313000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="K52" s="3">
         <v>5180000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>5162000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>5196000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>5133000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>5152000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3">
         <v>5040000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="Q52" s="3">
         <v>5675000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2190,43 +2643,67 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>111723000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>114058000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>115095000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>121673000</v>
+      </c>
+      <c r="H54" s="3">
         <v>123687000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="I54" s="3">
         <v>118440000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
         <v>118310000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="K54" s="3">
         <v>124369000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>126644000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>122851000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>120406000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>118091000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>117033000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>129043000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2240,8 +2717,12 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2255,218 +2736,294 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10781000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10951000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>11260000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>10207000</v>
+      </c>
+      <c r="H57" s="3">
         <v>10266000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="I57" s="3">
         <v>10243000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="J57" s="3">
         <v>10344000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="K57" s="3">
         <v>9716000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>9740000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>9458000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>9632000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>8076000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>8300000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="Q57" s="3">
         <v>9024000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9153000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9352000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>9697000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>8911000</v>
+      </c>
+      <c r="H58" s="3">
         <v>12113000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="I58" s="3">
         <v>10508000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="J58" s="3">
         <v>10423000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="K58" s="3">
         <v>12862000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>15547000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>14026000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>13554000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>13781000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>13007000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="Q58" s="3">
         <v>12215000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10230000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9950000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>9054000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>9252000</v>
+      </c>
+      <c r="H59" s="3">
         <v>8868000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="I59" s="3">
         <v>8469000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
         <v>7470000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="K59" s="3">
         <v>8133000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>7820000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>7240000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>7024000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>7225000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>7584000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>11162000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30164000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>30253000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>30011000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>28370000</v>
+      </c>
+      <c r="H60" s="3">
         <v>31247000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>29220000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>28237000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>30711000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>33107000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>30724000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>30210000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>29082000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>28891000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>32401000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18985000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>20161000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>20395000</v>
+      </c>
+      <c r="G61" s="3">
+        <v>21359000</v>
+      </c>
+      <c r="H61" s="3">
         <v>21514000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="I61" s="3">
         <v>20779000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="J61" s="3">
         <v>20863000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="K61" s="3">
         <v>22437000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>22186000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>20188000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>18038000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>16633000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>16460000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="Q61" s="3">
         <v>18910000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16666000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>16660000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>17110000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>16392000</v>
+      </c>
+      <c r="H62" s="3">
         <v>16483000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="I62" s="3">
         <v>15937000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="J62" s="3">
         <v>16327000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="K62" s="3">
         <v>16275000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>16630000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>16524000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>16380000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>17828000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>17938000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="Q62" s="3">
         <v>18781000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2500,8 +3057,20 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2535,8 +3104,20 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2570,43 +3151,67 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>66185000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>67480000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>67901000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>66601000</v>
+      </c>
+      <c r="H66" s="3">
         <v>69697000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>66204000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>66017000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>70054000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>72532000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>68033000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>65222000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>64251000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>63973000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>70781000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2620,8 +3225,12 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2655,8 +3264,20 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2690,43 +3311,67 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>911000</v>
+      </c>
+      <c r="E70" s="3">
+        <v>915000</v>
+      </c>
+      <c r="F70" s="3">
+        <v>928000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>933000</v>
+      </c>
+      <c r="H70" s="3">
         <v>946000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="I70" s="3">
         <v>951000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="J70" s="3">
         <v>967000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="K70" s="3">
         <v>972000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="L70" s="3">
         <v>986000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="M70" s="3">
         <v>991000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="N70" s="3">
         <v>1006000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="O70" s="3">
         <v>1010000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="P70" s="3">
         <v>1024000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="Q70" s="3">
         <v>1029000</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2760,43 +3405,67 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>98414000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>96625000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>94918000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>102103000</v>
+      </c>
+      <c r="H72" s="3">
         <v>101170000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>99831000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>98641000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>98623000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>97881000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>97197000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>96124000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>95736000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>94945000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>88855000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2830,8 +3499,20 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2865,8 +3546,20 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2900,43 +3593,67 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44627000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>45663000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>46266000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>54139000</v>
+      </c>
+      <c r="H76" s="3">
         <v>53044000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>51285000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>51326000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>53343000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>53126000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>53827000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>54178000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>52830000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>52036000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>57233000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2970,83 +3687,119 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3653000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3528000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-5309000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2681000</v>
+      </c>
+      <c r="H81" s="3">
         <v>3129000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="I81" s="3">
         <v>3133000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="J81" s="3">
         <v>1824000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
         <v>2437000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>2433000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>2791000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>2152000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>2462000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>7814000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>2651000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3060,43 +3813,59 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>677000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>723000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>820000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>711000</v>
+      </c>
+      <c r="H83" s="3">
         <v>650000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="I83" s="3">
         <v>643000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="J83" s="3">
         <v>750000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="K83" s="3">
         <v>716000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>676000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>692000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>720000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>665000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>707000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="Q83" s="3">
         <v>728000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3130,8 +3899,20 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3165,8 +3946,20 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3200,8 +3993,20 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3235,8 +4040,20 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3270,43 +4087,67 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4364000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4169000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>4151000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>3517000</v>
+      </c>
+      <c r="H89" s="3">
         <v>4007000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="I89" s="3">
         <v>3567000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="J89" s="3">
         <v>4199000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="K89" s="3">
         <v>3353000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>3684000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>3631000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>3688000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>3040000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>3000000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>3025000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3320,43 +4161,59 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-605000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1079000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-814000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-752000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-701000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="I91" s="3">
         <v>-1080000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="J91" s="3">
         <v>-907000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="K91" s="3">
         <v>-910000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-768000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-1132000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-1154000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-801000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>-745000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="Q91" s="3">
         <v>-684000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3390,8 +4247,20 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3425,43 +4294,67 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-650000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5079000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>647000</v>
+      </c>
+      <c r="G94" s="3">
+        <v>573000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-3845000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="I94" s="3">
         <v>-865000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="J94" s="3">
         <v>97000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="K94" s="3">
         <v>97000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-1171000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>-2534000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-1866000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-1802000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>100000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="Q94" s="3">
         <v>-2121000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3475,43 +4368,59 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1859000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1867000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-1937000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-1858000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1850000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="I96" s="3">
         <v>-1853000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="J96" s="3">
         <v>-1861000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="K96" s="3">
         <v>-1813000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="L96" s="3">
         <v>-1813000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="M96" s="3">
         <v>-1823000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="N96" s="3">
         <v>-1826000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="O96" s="3">
         <v>-1773000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="P96" s="3">
         <v>-1786000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="Q96" s="3">
         <v>-1851000</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3545,8 +4454,20 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3580,8 +4501,20 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3615,109 +4548,157 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6795000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4118000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-3304000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-5066000</v>
+      </c>
+      <c r="H100" s="3">
         <v>1032000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="I100" s="3">
         <v>-2656000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="J100" s="3">
         <v>-6861000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="K100" s="3">
         <v>-5638000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>-152000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>-1724000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>-2229000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>-1600000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>-4232000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="Q100" s="3">
         <v>-507000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>18000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-43000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="I101" s="3">
         <v>-70000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="J101" s="3">
         <v>-192000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="K101" s="3">
         <v>82000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
         <v>47000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="M101" s="3">
         <v>82000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="N101" s="3">
         <v>159000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>128000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3">
         <v>-273000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="Q101" s="3">
         <v>-43000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3025000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5065000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1501000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-958000</v>
+      </c>
+      <c r="H102" s="3">
         <v>1151000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="I102" s="3">
         <v>-24000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="J102" s="3">
         <v>-2757000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="K102" s="3">
         <v>-2106000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>2408000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>-545000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>-248000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>-234000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>-1405000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="Q102" s="3">
         <v>354000</v>
       </c>
     </row>
